--- a/Bases Gerais/aih_erros.xlsx
+++ b/Bases Gerais/aih_erros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabli\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabli\Desktop\r\SIS\Bases Gerais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA49F58F-65DD-456B-9E2D-2F4E27FFC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983AFCE9-FFE5-4CFA-8C65-09E72F01FF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1729">
   <si>
     <t>id</t>
   </si>
@@ -5198,6 +5198,15 @@
   </si>
   <si>
     <t>descricao_erro</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO EXIGE AIH DO PNRF (PROGRAMA NACIONAL DE REDUÇÃO DE FILAS)</t>
+  </si>
+  <si>
+    <t>060221</t>
+  </si>
+  <si>
+    <t>580</t>
   </si>
 </sst>
 </file>
@@ -5241,10 +5250,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5550,10 +5562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C577"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
-      <selection activeCell="A576" sqref="A576"/>
+      <selection activeCell="F576" sqref="F576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11896,6 +11908,17 @@
         <v>1723</v>
       </c>
     </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>1727</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
